--- a/Excel-worksheets/Lecture11_BiLSTM.xlsx
+++ b/Excel-worksheets/Lecture11_BiLSTM.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,8 +34,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -132,6 +137,12 @@
         <bgColor rgb="00C9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -179,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +679,13 @@
     <col width="7" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Bidirectional LSTM processes sequences in both directions, capturing past and future context simultaneously.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -702,7 +722,6 @@
       <c r="AD2" s="3" t="n"/>
       <c r="AE2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -728,7 +747,6 @@
       <c r="S4" s="3" t="n"/>
       <c r="T4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
@@ -757,8 +775,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -784,7 +800,6 @@
       <c r="S12" s="3" t="n"/>
       <c r="T12" s="4" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
@@ -905,7 +920,6 @@
         </is>
       </c>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="9" t="inlineStr">
         <is>
@@ -982,7 +996,6 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="11" t="inlineStr">
         <is>
@@ -1012,8 +1025,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
@@ -1039,7 +1050,6 @@
       <c r="S28" s="3" t="n"/>
       <c r="T28" s="4" t="n"/>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="5" t="inlineStr">
         <is>
@@ -1076,8 +1086,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
-    <row r="34"/>
     <row r="35">
       <c r="B35" s="2" t="inlineStr">
         <is>
@@ -1093,7 +1101,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B28:T28"/>
     <mergeCell ref="B2:AE2"/>
     <mergeCell ref="B4:T4"/>
@@ -1133,7 +1142,13 @@
     <col width="7" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Shared parameters for forward and backward LSTMs: input weights, hidden weights, and biases for each gate.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -1173,7 +1188,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="17" t="inlineStr">
         <is>
@@ -1189,7 +1203,6 @@
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="18" t="inlineStr">
         <is>
@@ -1266,8 +1279,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="5" t="inlineStr">
         <is>
@@ -1287,7 +1298,6 @@
       <c r="M12" s="3" t="n"/>
       <c r="N12" s="4" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
@@ -1380,7 +1390,6 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1473,7 +1482,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="5" t="inlineStr">
         <is>
@@ -1566,7 +1574,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31"/>
     <row r="32">
       <c r="B32" s="5" t="inlineStr">
         <is>
@@ -1659,7 +1666,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="9" t="inlineStr">
         <is>
@@ -1679,7 +1685,6 @@
       <c r="M38" s="3" t="n"/>
       <c r="N38" s="4" t="n"/>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="B40" s="9" t="inlineStr">
         <is>
@@ -1772,7 +1777,6 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45"/>
     <row r="46">
       <c r="B46" s="9" t="inlineStr">
         <is>
@@ -1865,7 +1869,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51"/>
     <row r="52">
       <c r="B52" s="9" t="inlineStr">
         <is>
@@ -1958,7 +1961,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57"/>
     <row r="58">
       <c r="B58" s="9" t="inlineStr">
         <is>
@@ -2051,7 +2053,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63"/>
     <row r="64">
       <c r="B64" s="19" t="inlineStr">
         <is>
@@ -2071,7 +2072,6 @@
       <c r="M64" s="3" t="n"/>
       <c r="N64" s="4" t="n"/>
     </row>
-    <row r="65"/>
     <row r="66">
       <c r="B66" s="20" t="inlineStr">
         <is>
@@ -2110,7 +2110,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B64:N64"/>
@@ -2151,7 +2152,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Forward LSTM: Processes sequence left-to-right, capturing dependencies from past context.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="5" t="inlineStr">
         <is>
@@ -2191,7 +2198,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="5" t="inlineStr">
         <is>
@@ -2199,7 +2205,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -2225,7 +2230,6 @@
       <c r="S6" s="3" t="n"/>
       <c r="T6" s="4" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -2277,7 +2281,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="22" t="inlineStr">
         <is>
@@ -2342,7 +2345,6 @@
         <v>0.485</v>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="26" t="inlineStr">
         <is>
@@ -2375,8 +2377,6 @@
         <v>-0.0194</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="5" t="inlineStr">
         <is>
@@ -2402,7 +2402,6 @@
       <c r="S21" s="3" t="n"/>
       <c r="T21" s="4" t="n"/>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="6" t="inlineStr">
         <is>
@@ -2454,7 +2453,6 @@
         <v>-0.0401</v>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="B27" s="22" t="inlineStr">
         <is>
@@ -2519,7 +2517,6 @@
         <v>0.5185</v>
       </c>
     </row>
-    <row r="31"/>
     <row r="32">
       <c r="B32" s="26" t="inlineStr">
         <is>
@@ -2552,8 +2549,6 @@
         <v>-0.017</v>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
     <row r="36">
       <c r="B36" s="5" t="inlineStr">
         <is>
@@ -2579,7 +2574,6 @@
       <c r="S36" s="3" t="n"/>
       <c r="T36" s="4" t="n"/>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="6" t="inlineStr">
         <is>
@@ -2631,7 +2625,6 @@
         <v>-0.0328</v>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="B42" s="22" t="inlineStr">
         <is>
@@ -2696,7 +2689,6 @@
         <v>0.5143</v>
       </c>
     </row>
-    <row r="46"/>
     <row r="47">
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -2729,8 +2721,6 @@
         <v>0.0034</v>
       </c>
     </row>
-    <row r="49"/>
-    <row r="50"/>
     <row r="51">
       <c r="B51" s="5" t="inlineStr">
         <is>
@@ -2756,7 +2746,6 @@
       <c r="S51" s="3" t="n"/>
       <c r="T51" s="4" t="n"/>
     </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" s="6" t="inlineStr">
         <is>
@@ -2808,7 +2797,6 @@
         <v>0.0066</v>
       </c>
     </row>
-    <row r="56"/>
     <row r="57">
       <c r="B57" s="22" t="inlineStr">
         <is>
@@ -2873,7 +2861,6 @@
         <v>0.5177</v>
       </c>
     </row>
-    <row r="61"/>
     <row r="62">
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -2907,7 +2894,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B51:T51"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B2:AH2"/>
@@ -2948,7 +2936,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Backward LSTM: Processes sequence right-to-left, capturing dependencies from future context.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="9" t="inlineStr">
         <is>
@@ -2988,7 +2982,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="9" t="inlineStr">
         <is>
@@ -2996,7 +2989,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
@@ -3022,7 +3014,6 @@
       <c r="S6" s="3" t="n"/>
       <c r="T6" s="4" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -3074,7 +3065,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="22" t="inlineStr">
         <is>
@@ -3139,7 +3129,6 @@
         <v>0.5597</v>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="26" t="inlineStr">
         <is>
@@ -3172,8 +3161,6 @@
         <v>-0.0171</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="9" t="inlineStr">
         <is>
@@ -3199,7 +3186,6 @@
       <c r="S21" s="3" t="n"/>
       <c r="T21" s="4" t="n"/>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="6" t="inlineStr">
         <is>
@@ -3251,7 +3237,6 @@
         <v>-0.0306</v>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="B27" s="22" t="inlineStr">
         <is>
@@ -3316,7 +3301,6 @@
         <v>0.5073</v>
       </c>
     </row>
-    <row r="31"/>
     <row r="32">
       <c r="B32" s="26" t="inlineStr">
         <is>
@@ -3349,8 +3333,6 @@
         <v>-0.007900000000000001</v>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
     <row r="36">
       <c r="B36" s="9" t="inlineStr">
         <is>
@@ -3376,7 +3358,6 @@
       <c r="S36" s="3" t="n"/>
       <c r="T36" s="4" t="n"/>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="6" t="inlineStr">
         <is>
@@ -3428,7 +3409,6 @@
         <v>-0.0156</v>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="B42" s="22" t="inlineStr">
         <is>
@@ -3493,7 +3473,6 @@
         <v>0.5299</v>
       </c>
     </row>
-    <row r="46"/>
     <row r="47">
       <c r="B47" s="26" t="inlineStr">
         <is>
@@ -3526,8 +3505,6 @@
         <v>-0.0328</v>
       </c>
     </row>
-    <row r="49"/>
-    <row r="50"/>
     <row r="51">
       <c r="B51" s="9" t="inlineStr">
         <is>
@@ -3553,7 +3530,6 @@
       <c r="S51" s="3" t="n"/>
       <c r="T51" s="4" t="n"/>
     </row>
-    <row r="52"/>
     <row r="53">
       <c r="B53" s="6" t="inlineStr">
         <is>
@@ -3605,7 +3581,6 @@
         <v>-0.0621</v>
       </c>
     </row>
-    <row r="56"/>
     <row r="57">
       <c r="B57" s="22" t="inlineStr">
         <is>
@@ -3670,7 +3645,6 @@
         <v>0.5324</v>
       </c>
     </row>
-    <row r="61"/>
     <row r="62">
       <c r="B62" s="26" t="inlineStr">
         <is>
@@ -3704,7 +3678,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B51:T51"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B2:AH2"/>
@@ -3755,7 +3730,13 @@
     <col width="7" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Combine forward and backward hidden states (concatenation or sum) to get bidirectional representation.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="11" t="inlineStr">
         <is>
@@ -3795,7 +3776,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -3823,7 +3803,6 @@
       <c r="U4" s="3" t="n"/>
       <c r="V4" s="4" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -4052,8 +4031,6 @@
         <v>-0.0171</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
     <row r="13">
       <c r="B13" s="19" t="inlineStr">
         <is>
@@ -4081,7 +4058,6 @@
       <c r="U13" s="3" t="n"/>
       <c r="V13" s="4" t="n"/>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="11" t="inlineStr">
         <is>
@@ -4114,7 +4090,6 @@
         <v>-0.0171</v>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="19" t="inlineStr">
         <is>
@@ -4143,7 +4118,6 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="19" t="inlineStr">
         <is>
@@ -4151,7 +4125,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
     <row r="25">
       <c r="B25" s="28" t="inlineStr">
         <is>
@@ -4159,8 +4132,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
@@ -4188,7 +4159,6 @@
       <c r="U28" s="3" t="n"/>
       <c r="V28" s="4" t="n"/>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
@@ -4210,7 +4180,6 @@
         </is>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
@@ -4233,7 +4202,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B13:V13"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B28:V28"/>
@@ -4296,7 +4266,13 @@
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Backpropagation through time (BPTT) for both directions, then combine gradients for parameter updates.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="19" t="inlineStr">
         <is>
@@ -4336,7 +4312,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="16" t="inlineStr">
         <is>
@@ -4344,7 +4319,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="19" t="inlineStr">
         <is>
@@ -4381,7 +4355,6 @@
       <c r="AD6" s="3" t="n"/>
       <c r="AE6" s="4" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="29" t="inlineStr">
         <is>
@@ -4389,7 +4362,6 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="19" t="inlineStr">
         <is>
@@ -4508,7 +4480,6 @@
         <v>0.2992</v>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="27" t="inlineStr">
         <is>
@@ -4525,8 +4496,6 @@
         <v>0.1472</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="33" t="inlineStr">
         <is>
@@ -4563,7 +4532,6 @@
       <c r="AD21" s="3" t="n"/>
       <c r="AE21" s="4" t="n"/>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="33" t="inlineStr">
         <is>
@@ -4603,8 +4571,6 @@
         <v>-0.1416</v>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="5" t="inlineStr">
         <is>
@@ -4641,7 +4607,6 @@
       <c r="AD28" s="3" t="n"/>
       <c r="AE28" s="4" t="n"/>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="27" t="inlineStr"/>
       <c r="D30" s="5" t="inlineStr">
@@ -4998,9 +4963,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="9" t="inlineStr">
         <is>
@@ -5037,7 +4999,6 @@
       <c r="AD38" s="3" t="n"/>
       <c r="AE38" s="4" t="n"/>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="B40" s="27" t="inlineStr"/>
       <c r="D40" s="9" t="inlineStr">
@@ -5394,9 +5355,6 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
@@ -5433,7 +5391,6 @@
       <c r="AD48" s="3" t="n"/>
       <c r="AE48" s="4" t="n"/>
     </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
@@ -5462,7 +5419,6 @@
         </is>
       </c>
     </row>
-    <row r="54"/>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
@@ -5485,13 +5441,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="M40:T40"/>
     <mergeCell ref="V30:AC30"/>
     <mergeCell ref="D30:K30"/>
     <mergeCell ref="M30:T30"/>
+    <mergeCell ref="B21:AE21"/>
     <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="B21:AE21"/>
     <mergeCell ref="B38:AE38"/>
     <mergeCell ref="B48:AE48"/>
     <mergeCell ref="B2:AH2"/>
@@ -5543,7 +5500,13 @@
     <col width="10" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -5583,7 +5546,6 @@
       <c r="AG2" s="3" t="n"/>
       <c r="AH2" s="4" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -5591,7 +5553,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -5611,7 +5572,6 @@
       <c r="M6" s="3" t="n"/>
       <c r="N6" s="4" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="18" t="inlineStr">
         <is>
@@ -5660,8 +5620,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="9" t="inlineStr">
         <is>
@@ -5681,7 +5639,6 @@
       <c r="M14" s="3" t="n"/>
       <c r="N14" s="4" t="n"/>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="18" t="inlineStr">
         <is>
@@ -5730,8 +5687,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21"/>
     <row r="22">
       <c r="B22" s="11" t="inlineStr">
         <is>
@@ -5751,7 +5706,6 @@
       <c r="M22" s="3" t="n"/>
       <c r="N22" s="4" t="n"/>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="18" t="inlineStr">
         <is>
@@ -5800,8 +5754,6 @@
         </is>
       </c>
     </row>
-    <row r="28"/>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="11" t="inlineStr">
         <is>
@@ -5824,11 +5776,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B14:N14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
